--- a/Output/Media/Oxygen/yl_cyto_oxygen_equalmass.xlsx
+++ b/Output/Media/Oxygen/yl_cyto_oxygen_equalmass.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -85,31 +85,31 @@
     <t>L Leucine exchange</t>
   </si>
   <si>
-    <t>octadecenoate n C181 exchange</t>
-  </si>
-  <si>
-    <t>octadecanoate n C180 exchange</t>
-  </si>
-  <si>
-    <t>octadecynoate n C182 exchange</t>
+    <t>oleate exchange</t>
+  </si>
+  <si>
+    <t>stearate exchange</t>
+  </si>
+  <si>
+    <t>methyl stearolate exchange</t>
   </si>
   <si>
     <t>L Valine exchange</t>
   </si>
   <si>
-    <t>Hexadecanoate n C160 exchange</t>
-  </si>
-  <si>
-    <t>hexadecenoate n C161 exchange</t>
-  </si>
-  <si>
-    <t>tetradecanoate n C140 exchange</t>
+    <t>palmitate exchange</t>
+  </si>
+  <si>
+    <t>palmitoleate exchange</t>
+  </si>
+  <si>
+    <t>myristate exchange</t>
   </si>
   <si>
     <t>Ethanol exchange</t>
   </si>
   <si>
-    <t>dodecanoate uptake</t>
+    <t>laurate exchange</t>
   </si>
   <si>
     <t>L Tyrosine exchange</t>
@@ -145,14 +145,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +170,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -175,14 +189,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -191,10 +228,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -232,69 +269,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -318,54 +357,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -375,7 +413,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -384,7 +422,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -393,7 +431,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -401,10 +439,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -433,7 +471,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -446,13 +484,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -470,1438 +507,1465 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>5.727746501272264</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>4.946822742474917</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>3.583946488294315</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>2.221070234113713</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="3">
         <v>0.829885057471265</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>5.033557043663048</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>5.03355704366305</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>5.03355704366305</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>4.827152654305317</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>4.535687071374146</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>4.244221488442986</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>3.952755905511813</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>3.66129032258065</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>3.369824739649482</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>3.078359156718309</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>2.786893573787146</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>2.495427990855981</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>2.203962407924816</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>1.91249682499365</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>1.621031242062483</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>1.329565659131319</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>1.038100076200153</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="3">
         <v>0.7466344932689873</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="3">
         <v>0.4551689103378207</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="3">
         <v>0.1637033274066547</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>5.033557043663047</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>5.033557043663051</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>4.936750000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>4.655499999999995</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>4.374250000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>4.092999999999993</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>3.811749999999996</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>3.530499999999996</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>3.249250000000001</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>2.968000000000001</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>2.68675</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>2.405500000000002</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>2.124249999999999</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>1.842999999999997</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>1.561750000000001</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>1.280499999999999</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>0.999249999999999</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="3">
         <v>0.7180000000000007</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="3">
         <v>0.4367499999999999</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="3">
         <v>0.1554999999999999</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>5.033557043663051</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>5.033557043663051</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>5.033557043663051</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>5.011744860305748</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>4.709293621507643</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>4.406842382709542</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>4.104391143911441</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>3.801939905113338</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>3.499488666315234</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>3.197037427517131</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>2.894586188719031</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>2.592134949920927</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>2.289683711122826</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>1.987232472324723</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>1.68478123352662</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>1.382329994728518</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="3">
         <v>1.079878755930416</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="3">
         <v>0.7774275171323142</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="3">
         <v>0.474976278334211</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="3">
         <v>0.1725250395361102</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>4.932855029585798</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>4.186756756756754</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
         <v>3.038108108108108</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="3">
         <v>1.886222222222226</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="3">
         <v>0.7020512820512821</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>4.865890580008229</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>4.865890580008229</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>4.82731774415406</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>4.552214580467674</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>4.277111416781292</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>4.002008253094909</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>3.726905089408528</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>3.451801925722147</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>3.176698762035762</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>2.901595598349381</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>2.626492434662998</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>2.351389270976615</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>2.076286107290234</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>1.801182943603852</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>1.526079779917469</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>1.250976616231087</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="3">
         <v>0.9758734525447045</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="3">
         <v>0.7007702888583217</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="3">
         <v>0.4256671251719408</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="3">
         <v>0.1505639614855573</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>4.865890580008234</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>4.865890580008226</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>4.865890580008226</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>4.741512027491412</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>4.455143184421545</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>4.168774341351662</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>3.882405498281788</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>3.596036655211916</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>3.309667812142045</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>3.023298969072171</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>2.736930126002299</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>2.450561282932422</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>2.164192439862545</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>1.877823596792673</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>1.591454753722799</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>1.30508591065292</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <v>1.018717067583047</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="3">
         <v>0.7323482245131744</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="3">
         <v>0.445979381443299</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="3">
         <v>0.159610538373425</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>4.65686146452666</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>4.656861464526663</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>4.656861464526663</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>4.42011285266458</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>4.15287147335421</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>3.885630094043862</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>3.618388714733527</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>3.351147335423178</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>3.083905956112837</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>2.816664576802502</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>2.549423197492153</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>2.282181818181797</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>2.014940438871477</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>1.747699059561121</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>1.48045768025078</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>1.213216300940434</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="3">
         <v>0.9459749216300857</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="3">
         <v>0.6787335423197507</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="3">
         <v>0.4114921630094044</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="3">
         <v>0.1442507836990596</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>3.843664167916046</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>3.843664167916046</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>3.843664167916046</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>3.843664167916046</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>3.843664167916046</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>3.843664167916046</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>3.843664167916046</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>3.843664167916046</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>3.619913793103453</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>3.307413793103447</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>2.994913793103447</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>2.682413793103448</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>2.369913793103446</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>2.05741379310345</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>1.744913793103448</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>1.432413793103448</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>1.119913793103449</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>0.8074137931034477</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="3">
         <v>0.4949137931034472</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="3">
         <v>0.1824137931034489</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>3.709036792353376</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>3.61803020354564</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>3.42187130663166</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>3.225712409717675</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>3.029553512803687</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>2.833394615889703</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>2.637235718975713</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>2.441076822061729</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>2.244917925147744</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>2.048759028233758</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>1.852600131319772</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>1.656441234405786</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>1.460282337491794</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>1.264123440577812</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>1.067964543663823</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="3">
         <v>0.8718056467498382</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="3">
         <v>0.675646749835851</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="3">
         <v>0.4794878529218637</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="3">
         <v>0.2833289560078777</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="3">
         <v>0.08683865999229883</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>3.598081366147665</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>3.598081366147665</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>3.598081366147665</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>3.598081366147665</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>3.598081366147665</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>3.598081366147665</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>3.598081366147665</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>3.598081366147665</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>3.598081366147665</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>3.598081366147665</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>3.598081366147665</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>3.598081366147665</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>3.317122530840836</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>2.974656777416181</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>2.546518987341774</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="3">
         <v>2.095569620253164</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="3">
         <v>1.644620253164554</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="3">
         <v>1.193670886075949</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="3">
         <v>0.7352678571428611</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="3">
         <v>0.2485</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="3">
         <v>3.49514563106796</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="3">
         <v>3.143004291845493</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="3">
         <v>2.488497854077254</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="3">
         <v>1.833991416309013</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="3">
         <v>1.179484978540772</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="3">
         <v>0.5018750000000001</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
-      <c r="A14" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="3">
         <v>3.482984764542932</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="3">
         <v>2.628925307280177</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="3">
         <v>1.62593129530413</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="3">
         <v>0.6229372833280806</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="A15" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="3">
         <v>3.482984764542933</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="3">
         <v>2.628925307280175</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="3">
         <v>1.625931295304129</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="3">
         <v>0.6229372833280794</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
-      <c r="A16" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="3">
         <v>3.482984764542942</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="3">
         <v>2.628925307280179</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="3">
         <v>1.62593129530413</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="3">
         <v>0.6229372833280826</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="3">
         <v>3.375883295194512</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="3">
         <v>2.82826347305389</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="3">
         <v>1.825269461077843</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="3">
         <v>0.8222754491017961</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="3">
         <v>3.364048733874821</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="3">
         <v>2.946707902875568</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="3">
         <v>1.94371389089952</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="3">
         <v>0.9407198789234716</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
-      <c r="A19" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="3">
         <v>3.328552631578946</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="3">
         <v>2.651616766467062</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="3">
         <v>1.648622754491014</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="3">
         <v>0.645628742514968</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
-      <c r="A20" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="3">
         <v>3.321973684210523</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="3">
         <v>2.633652694610778</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="3">
         <v>1.63065868263473</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="3">
         <v>0.6276646706586825</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
-      <c r="A21" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="3">
         <v>3.321973684210531</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="3">
         <v>2.633652694610778</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="3">
         <v>1.63065868263473</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="3">
         <v>0.6276646706586824</v>
       </c>
     </row>
